--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3165084.451338019</v>
+        <v>3158158.504256479</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847138</v>
+        <v>2310564.143223168</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>102.1242129758048</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>150.1438926425365</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>66.21659530538606</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -786,13 +786,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>107.6174290231477</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.08478869357517</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>24.36299181516883</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>102.7156179215158</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>264.7093273289311</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>29.94365049082892</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>45.04968784997224</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>79.92938740919254</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>135.5413370468854</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.0536582330029</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>225.93078155091</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>141.1952879668185</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.2141420390929</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,10 +1376,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1427,16 +1427,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>1.662567890148395</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>71.7383245062743</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497557</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>52.22057316872846</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
@@ -1616,7 +1616,7 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1673,7 +1673,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.73832450627476</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190347</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.482250613589</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2381,7 +2381,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943264</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.903426900358</v>
+        <v>280.459964427719</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555348</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.527855808057</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313971</v>
+        <v>296.6956602587581</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>27.3673743845349</v>
+        <v>20.92391191189591</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443502</v>
+        <v>48.81858568179604</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896136</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431835</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769529</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274705</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.495968162041</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046335</v>
+        <v>67.32610467782436</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074575</v>
+        <v>52.47323292810677</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258548</v>
+        <v>38.04694813994649</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546459</v>
+        <v>37.9733901928256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523186</v>
+        <v>39.72284161259287</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762399</v>
+        <v>50.54167953498501</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419604</v>
+        <v>37.89393170155705</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536797</v>
+        <v>15.73364728272898</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982388</v>
+        <v>6.632145647184899</v>
       </c>
       <c r="S34" t="n">
-        <v>91.2015516253512</v>
+        <v>84.75808915271222</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868843</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139542</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734591</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682828</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449592</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422874182</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>143.5290007893337</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822795</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812808</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>64.51610769526391</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.8890990341564</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443881</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627853</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915765</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892491</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131705</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788909</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906102</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351694</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
@@ -3961,7 +3961,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>205.237678795898</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
-        <v>105.0030139634929</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
@@ -3992,10 +3992,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812808</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>156.7283627995155</v>
@@ -4037,13 +4037,13 @@
         <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.8890990341564</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443881</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627853</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915765</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892491</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131705</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788909</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906102</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351694</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
         <v>136.8950218432163</v>
@@ -4198,7 +4198,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
         <v>124.4141011012912</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>996.4868034091171</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="C2" t="n">
-        <v>996.4868034091171</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="D2" t="n">
-        <v>611.0456746257848</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="E2" t="n">
-        <v>611.0456746257848</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="F2" t="n">
-        <v>194.1512361557626</v>
+        <v>512.0408447112596</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703882</v>
+        <v>502.9184932396669</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703882</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703882</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703882</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L2" t="n">
-        <v>99.81849489543129</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>625.6413842912866</v>
+        <v>1538.617529548892</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687142</v>
+        <v>1584.876694038787</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.50387457947</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710992</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851941</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851941</v>
+        <v>1820.409826157688</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.536926851941</v>
+        <v>1596.909223717104</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.536926851941</v>
+        <v>1341.156494151703</v>
       </c>
       <c r="V2" t="n">
-        <v>1782.430117555459</v>
+        <v>999.0496848552215</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.430117555459</v>
+        <v>628.0506498235089</v>
       </c>
       <c r="X2" t="n">
-        <v>1392.977512488516</v>
+        <v>628.0506498235089</v>
       </c>
       <c r="Y2" t="n">
-        <v>996.4868034091171</v>
+        <v>628.0506498235089</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>505.9467430955106</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>505.9467430955106</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>439.0612932920903</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>302.614802402978</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512723</v>
+        <v>89.88557988671072</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703882</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>526.056824435352</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M3" t="n">
-        <v>676.5723861487068</v>
+        <v>843.803557859162</v>
       </c>
       <c r="N3" t="n">
-        <v>1202.395275544562</v>
+        <v>1289.384420380774</v>
       </c>
       <c r="O3" t="n">
-        <v>1718.915558135543</v>
+        <v>1790.551203376225</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851941</v>
+        <v>1790.551203376225</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750005</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S3" t="n">
-        <v>1991.91540998925</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T3" t="n">
-        <v>1814.931598188158</v>
+        <v>1689.084762927957</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110953</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609646</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364719</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.0085985623486</v>
+        <v>62.80619326586995</v>
       </c>
       <c r="C4" t="n">
-        <v>511.0085985623486</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="D4" t="n">
-        <v>355.3754854648633</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="E4" t="n">
-        <v>199.8166733240659</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="X4" t="n">
-        <v>919.3286784370066</v>
+        <v>62.80619326586995</v>
       </c>
       <c r="Y4" t="n">
-        <v>696.2166172536499</v>
+        <v>62.80619326586995</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>948.5794552060659</v>
+        <v>329.8578707179454</v>
       </c>
       <c r="C5" t="n">
-        <v>948.5794552060659</v>
+        <v>329.8578707179454</v>
       </c>
       <c r="D5" t="n">
-        <v>563.1383264227336</v>
+        <v>329.8578707179454</v>
       </c>
       <c r="E5" t="n">
-        <v>563.1383264227336</v>
+        <v>329.8578707179454</v>
       </c>
       <c r="F5" t="n">
-        <v>146.2438879527114</v>
+        <v>317.0038362883272</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703882</v>
+        <v>307.8814848167345</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="M5" t="n">
-        <v>1565.266048587713</v>
+        <v>1045.297237830363</v>
       </c>
       <c r="N5" t="n">
-        <v>2091.088937983568</v>
+        <v>1546.464020825814</v>
       </c>
       <c r="O5" t="n">
-        <v>2091.088937983568</v>
+        <v>1986.503621718143</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792991</v>
+        <v>1858.402739872166</v>
       </c>
       <c r="T5" t="n">
-        <v>1734.522769352408</v>
+        <v>1858.402739872166</v>
       </c>
       <c r="U5" t="n">
-        <v>1734.522769352408</v>
+        <v>1858.402739872166</v>
       </c>
       <c r="V5" t="n">
-        <v>1734.522769352408</v>
+        <v>1516.295930575684</v>
       </c>
       <c r="W5" t="n">
-        <v>1734.522769352408</v>
+        <v>1516.295930575684</v>
       </c>
       <c r="X5" t="n">
-        <v>1345.070164285465</v>
+        <v>1126.843325508741</v>
       </c>
       <c r="Y5" t="n">
-        <v>948.5794552060659</v>
+        <v>730.3526164293423</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163357</v>
+        <v>595.3726849936495</v>
       </c>
       <c r="C6" t="n">
-        <v>454.913144576428</v>
+        <v>444.7184545537417</v>
       </c>
       <c r="D6" t="n">
-        <v>454.913144576428</v>
+        <v>314.629487175222</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512723</v>
+        <v>89.88557988671072</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567662</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="L6" t="n">
-        <v>639.1718066550794</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="M6" t="n">
-        <v>1164.994696050935</v>
+        <v>1458.085323074341</v>
       </c>
       <c r="N6" t="n">
-        <v>1690.81758544679</v>
+        <v>1959.252106069792</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135543</v>
+        <v>1959.252106069792</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851941</v>
+        <v>1959.252106069792</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750005</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649874</v>
+        <v>1955.494516627188</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848782</v>
+        <v>1778.510704826096</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527424</v>
+        <v>1568.447561504738</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898491</v>
+        <v>1345.907559875805</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031778</v>
+        <v>1115.790314009092</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817898</v>
+        <v>926.4832363591036</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572971</v>
+        <v>747.1690194346108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.7072397424329</v>
+        <v>424.5346241543356</v>
       </c>
       <c r="C7" t="n">
-        <v>228.5021218084221</v>
+        <v>254.3295062203248</v>
       </c>
       <c r="D7" t="n">
-        <v>72.86900871093687</v>
+        <v>254.3295062203248</v>
       </c>
       <c r="E7" t="n">
-        <v>72.86900871093687</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="F7" t="n">
-        <v>72.86900871093687</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="G7" t="n">
-        <v>72.86900871093687</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="H7" t="n">
-        <v>72.86900871093687</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093687</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="W7" t="n">
-        <v>943.9377610785913</v>
+        <v>658.6149463713525</v>
       </c>
       <c r="X7" t="n">
-        <v>807.0273196170908</v>
+        <v>424.5346241543356</v>
       </c>
       <c r="Y7" t="n">
-        <v>583.9152584337342</v>
+        <v>424.5346241543356</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.907436154955</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.731934657886</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1970.922039360746</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1628.815230064265</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1257.816195032552</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>868.363589965609</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>471.8728808862101</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>305.4650404492652</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>789.0311263475785</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1374.529131354181</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>682.2375002788867</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>526.6043871814015</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4996,16 +4996,16 @@
         <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>558.8796580964973</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8590032756731</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8590032756731</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8590032756731</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1549.258117997884</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1251.023297788003</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>960.5228502918593</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>652.8800066955921</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>652.8800066955921</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707836</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5072,19 +5072,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2743.332180497207</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.273826752683</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2172.761902972929</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1871.211875180718</v>
+        <v>1854.812182422093</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798492</v>
+        <v>100.2728717798494</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1549.258117997884</v>
+        <v>1625.725108676623</v>
       </c>
       <c r="C14" t="n">
-        <v>1251.023297788003</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D14" t="n">
-        <v>960.522850291859</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>652.8800066955919</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
         <v>652.8800066955919</v>
@@ -5270,10 +5270,10 @@
         <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5297,10 +5297,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S14" t="n">
         <v>3034.383511434015</v>
@@ -5309,19 +5309,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2745.011542002406</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2497.845413993113</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X14" t="n">
-        <v>1927.275136468836</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y14" t="n">
-        <v>1854.812182422092</v>
+        <v>1625.725108676623</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082776</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311667</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
         <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469765</v>
+        <v>836.805091346976</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.046087107758</v>
       </c>
       <c r="O16" t="n">
         <v>1368.80221587904</v>
@@ -5455,7 +5455,7 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414175</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.79633049859</v>
       </c>
       <c r="E17" t="n">
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5525,40 +5525,40 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840154</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="18">
@@ -5577,10 +5577,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5589,25 +5589,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072664</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102857</v>
       </c>
       <c r="M19" t="n">
         <v>623.4297566485498</v>
@@ -5686,7 +5686,7 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5826,28 +5826,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N24" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2262.088962721623</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,22 +6148,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>2273.334693965057</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>2273.334693965057</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2273.334693965057</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985359</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517136</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414167</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878075</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879688</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746028</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232851</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192013</v>
       </c>
       <c r="L28" t="n">
-        <v>568.707882522574</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648018</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573178</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.29817721028</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286456</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.768815498817</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026488</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
@@ -6467,16 +6467,16 @@
         <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755555</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6485,28 +6485,28 @@
         <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>123.8559155359222</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>2273.334693965057</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2273.334693965057</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2273.334693965057</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6598,49 +6598,49 @@
         <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796863</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144927</v>
+        <v>890.2201666674341</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423744</v>
+        <v>590.5275805474764</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267667</v>
+        <v>87.68547930209959</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462897</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>669.9452253061315</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1163.26551702466</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1709.266417069241</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2237.077700706703</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2785.607809239417</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011325</v>
+        <v>3142.6651770905</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231449</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231449</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491229</v>
+        <v>3278.199034522564</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.900284432045</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216708</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382474</v>
+        <v>2808.444450270291</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748666</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462897</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>66.55021474462897</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>323.4000413040139</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>806.9661272023271</v>
       </c>
       <c r="M33" t="n">
-        <v>1612.734491189994</v>
+        <v>806.9661272023271</v>
       </c>
       <c r="N33" t="n">
-        <v>2268.512462400553</v>
+        <v>1462.744098412886</v>
       </c>
       <c r="O33" t="n">
-        <v>2386.878162358681</v>
+        <v>1979.264381003867</v>
       </c>
       <c r="P33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.239504859021</v>
+        <v>341.6872565554803</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229142</v>
+        <v>288.6839909715341</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233328</v>
+        <v>250.2527302241133</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804393</v>
+        <v>211.8957704333804</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913162</v>
+        <v>171.7716879964179</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886657</v>
+        <v>120.719486445928</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806362</v>
+        <v>82.44278775748653</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462897</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>66.55021474462897</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359355</v>
+        <v>162.2350636228056</v>
       </c>
       <c r="L34" t="n">
-        <v>393.2220734097353</v>
+        <v>326.3627034966054</v>
       </c>
       <c r="M34" t="n">
-        <v>579.5136517479993</v>
+        <v>512.6542818348694</v>
       </c>
       <c r="N34" t="n">
-        <v>871.1937934195942</v>
+        <v>810.7134513543768</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964896</v>
+        <v>1088.287753884383</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.67212738186</v>
+        <v>1323.03345514926</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392297</v>
+        <v>1326.455651519311</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422778</v>
+        <v>1319.756514501952</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034566</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569369</v>
+        <v>1115.625083552865</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209174</v>
+        <v>947.3881441448304</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279024</v>
+        <v>798.6106513157192</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569839</v>
+        <v>632.4821015969615</v>
       </c>
       <c r="X34" t="n">
-        <v>576.172975937871</v>
+        <v>515.6036317300092</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524183</v>
+        <v>409.693422896717</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G35" t="n">
         <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,10 +6962,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188067</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099302</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803419</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924096</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,25 +7199,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222414</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960412</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343052</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655144</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072225</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476281</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1548.565607366782</v>
+        <v>1772.044870492822</v>
       </c>
       <c r="C41" t="n">
-        <v>1252.831357859846</v>
+        <v>1476.310620985886</v>
       </c>
       <c r="D41" t="n">
-        <v>964.8314810666467</v>
+        <v>1188.310744192687</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666467</v>
+        <v>883.1684712993649</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867576</v>
+        <v>563.7152848194758</v>
       </c>
       <c r="G41" t="n">
-        <v>329.656791064894</v>
+        <v>247.9937812976121</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215179</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,19 +7442,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111242</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="V41" t="n">
-        <v>2507.847696804893</v>
+        <v>2666.159174380162</v>
       </c>
       <c r="W41" t="n">
-        <v>2442.679911254121</v>
+        <v>2666.159174380162</v>
       </c>
       <c r="X41" t="n">
-        <v>2150.668558177311</v>
+        <v>2374.147821303352</v>
       </c>
       <c r="Y41" t="n">
-        <v>1851.619101088045</v>
+        <v>2075.098364214086</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>580.3847592515303</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344863</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906088</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832567</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325924</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690444</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>68.2319501674404</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529118</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022411</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160347</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822773</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237699</v>
@@ -7603,16 +7603,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557616</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1613.733392917554</v>
+        <v>1765.284417415691</v>
       </c>
       <c r="C44" t="n">
-        <v>1317.999143410618</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1029.999266617419</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E44" t="n">
-        <v>923.9356161492442</v>
+        <v>964.8314810666463</v>
       </c>
       <c r="F44" t="n">
-        <v>604.4824296693553</v>
+        <v>645.3782945867573</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474917</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>2878.572604561692</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804893</v>
+        <v>2633.907047255344</v>
       </c>
       <c r="W44" t="n">
-        <v>2507.847696804893</v>
+        <v>2360.349264213764</v>
       </c>
       <c r="X44" t="n">
-        <v>2215.836343728083</v>
+        <v>2068.337911136955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1916.786886638818</v>
+        <v>2068.337911136955</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>2262.088962721623</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906088</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832567</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325924</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690444</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,22 +7807,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022401</v>
       </c>
       <c r="M46" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806886</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7840,16 +7840,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557616</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>211.1549943349285</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107125</v>
+        <v>655.954125330506</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507693</v>
+        <v>195.8449201154554</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>244.4230429718924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671518</v>
+        <v>535.4537921689259</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216678</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,19 +8219,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107125</v>
+        <v>655.954125330506</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507693</v>
+        <v>655.347565070563</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>184.0872945827158</v>
+        <v>189.1021272540285</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622971</v>
+        <v>598.6161957820907</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671518</v>
+        <v>591.6011865869455</v>
       </c>
       <c r="O6" t="n">
-        <v>121.0693494835892</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>157.3156166522006</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>634.4471913084061</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,7 +8532,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>236.0990445535295</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8772,22 +8772,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>165.8788395891214</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9021,10 +9021,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9173,7 +9173,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826963</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9240,13 +9240,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,10 +9255,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>405.238467333103</v>
       </c>
       <c r="P18" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>538.5873532373481</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238534</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,10 +10188,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943151</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852373</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10595,7 +10595,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O35" t="n">
         <v>594.0482827698827</v>
@@ -10662,10 +10662,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,16 +10674,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>306.543171528089</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,10 +11139,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>176.3345925796061</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>243.0318988390519</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>226.7962030080141</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>8.597567102697212e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>243.0318988390538</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>226.7962030080137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>80.84637966960862</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,13 +25682,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>206.3060975158997</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25865,13 +25865,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>87.53922821596871</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>197.0878362008961</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822795</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>593166.4293913338</v>
+        <v>593166.4293913337</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631162.6233267485</v>
+        <v>631162.6233267484</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595752.7759208163</v>
+        <v>595752.7759208166</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>631162.6233267488</v>
+      </c>
+      <c r="C2" t="n">
+        <v>631162.6233267491</v>
+      </c>
+      <c r="D2" t="n">
         <v>631162.6233267486</v>
       </c>
-      <c r="C2" t="n">
-        <v>631162.6233267486</v>
-      </c>
-      <c r="D2" t="n">
-        <v>631162.6233267491</v>
-      </c>
       <c r="E2" t="n">
+        <v>593166.4293913338</v>
+      </c>
+      <c r="F2" t="n">
         <v>593166.4293913342</v>
       </c>
-      <c r="F2" t="n">
-        <v>593166.4293913341</v>
-      </c>
       <c r="G2" t="n">
+        <v>631162.6233267487</v>
+      </c>
+      <c r="H2" t="n">
         <v>631162.623326749</v>
-      </c>
-      <c r="H2" t="n">
-        <v>631162.6233267488</v>
       </c>
       <c r="I2" t="n">
         <v>631162.6233267488</v>
       </c>
       <c r="J2" t="n">
+        <v>631162.623326749</v>
+      </c>
+      <c r="K2" t="n">
         <v>631162.6233267487</v>
       </c>
-      <c r="K2" t="n">
-        <v>631162.6233267485</v>
-      </c>
       <c r="L2" t="n">
-        <v>631162.62332675</v>
+        <v>631162.6233267487</v>
       </c>
       <c r="M2" t="n">
         <v>631162.6233267491</v>
       </c>
       <c r="N2" t="n">
-        <v>631162.6233267492</v>
+        <v>631162.6233267488</v>
       </c>
       <c r="O2" t="n">
         <v>595752.7759208154</v>
       </c>
       <c r="P2" t="n">
-        <v>595752.7759208155</v>
+        <v>595752.7759208154</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602654</v>
+        <v>26460.41160941804</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670111</v>
+        <v>46725.80335481231</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.2769343685</v>
+        <v>43782.97194555666</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015683</v>
+        <v>18983.55983015687</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170591.5484883814</v>
+        <v>177303.7227646046</v>
       </c>
       <c r="C4" t="n">
-        <v>170591.5484883815</v>
+        <v>177303.7227646046</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704044</v>
+        <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183768</v>
+        <v>97239.09137183767</v>
       </c>
       <c r="F4" t="n">
-        <v>97239.09137183768</v>
+        <v>97239.09137183773</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153196</v>
@@ -26445,19 +26445,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122271.0498250416</v>
+        <v>122137.6552159869</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
-        <v>98913.70727082908</v>
+        <v>98913.70727082911</v>
       </c>
       <c r="P4" t="n">
-        <v>98913.70727082909</v>
+        <v>98913.70727082911</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295295</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295295</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,25 +26479,25 @@
         <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890909</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
+        <v>63659.0452539195</v>
+      </c>
+      <c r="K5" t="n">
         <v>63659.04525391951</v>
       </c>
-      <c r="K5" t="n">
-        <v>63659.0452539195</v>
-      </c>
       <c r="L5" t="n">
-        <v>61305.21346446767</v>
+        <v>60332.67530588342</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216655.2164158669</v>
+        <v>219803.5670026413</v>
       </c>
       <c r="C6" t="n">
-        <v>394650.5135502176</v>
+        <v>389452.5728791916</v>
       </c>
       <c r="D6" t="n">
-        <v>388506.9545931451</v>
+        <v>380770.6653697531</v>
       </c>
       <c r="E6" t="n">
-        <v>310362.1173728752</v>
+        <v>310253.5568187737</v>
       </c>
       <c r="F6" t="n">
-        <v>440815.0485105873</v>
+        <v>440706.4879564862</v>
       </c>
       <c r="G6" t="n">
-        <v>422054.4861228954</v>
+        <v>422054.486122895</v>
       </c>
       <c r="H6" t="n">
-        <v>451149.4419959095</v>
+        <v>451149.4419959096</v>
       </c>
       <c r="I6" t="n">
         <v>451149.4419959095</v>
       </c>
       <c r="J6" t="n">
-        <v>223063.7986461598</v>
+        <v>229580.0838007332</v>
       </c>
       <c r="K6" t="n">
-        <v>444909.6735931262</v>
+        <v>444909.6735931264</v>
       </c>
       <c r="L6" t="n">
-        <v>406015.3266605397</v>
+        <v>401966.4894500661</v>
       </c>
       <c r="M6" t="n">
-        <v>408418.1650615413</v>
+        <v>407366.4700503531</v>
       </c>
       <c r="N6" t="n">
-        <v>451149.4419959099</v>
+        <v>451149.4419959095</v>
       </c>
       <c r="O6" t="n">
-        <v>422535.1010372788</v>
+        <v>422433.9300446903</v>
       </c>
       <c r="P6" t="n">
-        <v>441518.6608674357</v>
+        <v>441417.4898748472</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,25 +26799,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443781</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443784</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
       <c r="L4" t="n">
-        <v>856.7828422880684</v>
+        <v>831.8776843078622</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087639</v>
+        <v>58.40725419351539</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165946</v>
+        <v>14.33013548902045</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769604</v>
+        <v>23.72944978769608</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630989</v>
+        <v>85.18305253651624</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559195</v>
+        <v>646.8007142757128</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455247</v>
+        <v>129.6883820257311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630989</v>
+        <v>85.18305253651624</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>294.3655852784781</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>258.8872353143403</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>62.5714823993484</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>25.96394130598213</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>146.4182780610955</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>207.3765271796779</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>306.3155100353611</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>56.13289260024317</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>105.1383754893922</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>88.53168247915761</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>74.07383661019696</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>96.19818194796127</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.43614002128</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>27.26442071883741</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>27.30777878785216</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>178.2829560090413</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-3.505389987387557e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28749,19 +28749,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28983,19 +28983,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634528609</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155846</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
         <v>130.3599693155844</v>
@@ -29220,25 +29220,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634528637</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901311</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29539,7 +29539,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29551,7 +29551,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>30.27223765901323</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>98.75804948161226</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29785,10 +29785,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539249</v>
+        <v>103.286595451375</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539249</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>13.98970481639874</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="O34" t="n">
-        <v>58.99686212484227</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="35">
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634528836</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30241,7 +30241,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155856</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634529262</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082783</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J43" t="n">
-        <v>36.24905561693167</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023186</v>
+        <v>36.2490556169306</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30736,34 +30736,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023186</v>
+        <v>36.24905561693052</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561693145</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
   </sheetData>
@@ -32017,7 +32017,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>57.90682460443684</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129852</v>
+        <v>46.72642877767132</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>152.0359209225805</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129852</v>
+        <v>450.0816793147593</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>33.78584734179061</v>
+        <v>38.80068001310335</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="O6" t="n">
-        <v>28.38179059470032</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>66.3274634962866</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>485.328699970622</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>146.5021092201962</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110584</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>75.81849273220315</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,13 +35893,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.704537506587</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,10 +35975,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>312.5509084442141</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>193.8093140873206</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>453.2152403831814</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133861</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039228</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047994</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,7 +36847,7 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656009</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098172</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>461.3664899133919</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,10 +37081,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997113</v>
+        <v>560.5142791723501</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605126</v>
+        <v>454.9911329579627</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176584</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>96.65136250320872</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37236,16 +37236,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288837</v>
+        <v>301.0698682015227</v>
       </c>
       <c r="O34" t="n">
-        <v>223.3451116619211</v>
+        <v>280.3780833636428</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918831</v>
+        <v>237.1168699645221</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640774</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,16 +37394,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873208</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133924</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184307</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R40" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37859,10 +37859,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>86.27424572268784</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.174568144772601</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697226</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038434</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,10 +38032,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>202.0345504389505</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708393</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
